--- a/data/trans_bre/P12B1_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-41,37%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-27,23%</t>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,22 +720,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,05</t>
+          <t>0,0; 3,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 2,17</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 0,0</t>
+          <t>-1,84; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 9,42</t>
+          <t>-2,88; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -702,6 +754,26 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,12</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-10,73</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-43,28%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-31,01%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-48,35%</t>
+          <t>-49,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>70,5%</t>
+          <t>-55,25%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-40,28%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-37,92%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 8,82</t>
+          <t>-8,08; 1,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,75; 8,11</t>
+          <t>-8,75; 0,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,87; 5,02</t>
+          <t>-5,39; 0,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 26,96</t>
+          <t>-11,56; 1,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 206,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,86; 49,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-91,24; 44,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-64,62; 730,57</t>
+          <t>-89,91; 51,53</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-92,23; 97,33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-91,55; 104,75</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,85</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,55</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,52</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>198,54%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-42,95%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>58,14%</t>
+          <t>124,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>97,54%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>86,68%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-13,31%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,22 +1000,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 27,42</t>
+          <t>-0,86; 1,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-55,32; 13,16</t>
+          <t>-0,69; 1,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 18,95</t>
+          <t>-0,51; 1,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 61,15</t>
+          <t>-2,91; 1,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,15 +1025,35 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-98,62; 181,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-84,69; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-74,18; 146,99</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -910,7 +1062,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-27,38%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-48,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-53,27%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>-40,02%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>466,38%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 5,25</t>
+          <t>-0,95; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,71; 0,95</t>
+          <t>-4,53; 0,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,68; 1,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 13,37</t>
+          <t>0,31; 4,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-92,34; 170,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,38; 9,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-89,2; 17,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,42; 289,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-27,69%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-39,41%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-35,7%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-12,04%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 0,46</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 0,37</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 0,35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 1,05</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-90,34; 157,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-77,72; 43,17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-82,47; 59,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-74,44; 74,06</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12B1_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,207 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.5106117488632722</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2921038952840543</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.4023295830532975</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.5665479664789597</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,42</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,7</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,84; 0,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; 0,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.921364282588659</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.010811028714246</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="inlineStr"/>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.410973740013666</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.631019571057367</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,28</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,16</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,84</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-49,01%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-55,25%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-40,28%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-37,92%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,08; 1,09</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,75; 0,45</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,39; 0,73</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,56; 1,96</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-89,91; 51,53</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-92,23; 97,33</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-91,55; 104,75</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-1.100673908230478</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.862540942148733</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.8653067740916636</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.873026774947337</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.4441216142517886</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.5149868161794492</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.4144121329012356</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.36164627876714</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>124,14%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>97,54%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>86,68%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-13,31%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.589093430589053</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.498304657429713</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5.491701182861989</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.53027531095412</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
+        <v>-0.887415733860522</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.9316425472862782</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.9156876852588656</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 1,89</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 1,83</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 1,12</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,91; 1,69</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-74,18; 146,99</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.203274927771744</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.6621840386322295</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.6841713627145772</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.071916485449233</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="n">
+        <v>0.5775175655444689</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.8745103641052074</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.142751120689403</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +867,226 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,85</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-40,02%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>466,38%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.5230673761274933</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6061782314389691</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3833804947677132</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.3433169739607188</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>1.358983879073173</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.189405706848911</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.028186216775013</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.1406958763650548</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,95; 0,0</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,53; 0,95</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 4,7</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.7661357315829889</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5546421970195138</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4137369490578425</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.0336434239838</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.9857308346773918</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.7394911569640088</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.809140832247579</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.874894020118124</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.201784760881914</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.698109164394947</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="n">
+        <v>1.490219643234916</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,74</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,43</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-27,69%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-39,41%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-35,7%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-12,04%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,05; 0,46</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,72; 0,37</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 0,35</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,47; 1,05</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-90,34; 157,44</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-77,72; 43,17</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-82,47; 59,81</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-74,44; 74,06</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.2636340234112831</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.6694785997298891</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.4346105039410227</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.257868105276604</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.2009730714821591</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.3566424729861175</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.3633181188652294</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.3776474753420619</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.413822544124147</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.673513624055479</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.194806502648223</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.949678934737002</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.8776892307494529</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.8324162616522662</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.8266959997577961</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.8183214992111897</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.9109828087871837</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.5715703626931817</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3283170960953532</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.5635575886863216</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>2.513813361151692</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.8759145877773417</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6003481471036014</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3496572103300407</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
